--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468498.038369418</v>
+        <v>1466199.385455169</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3401279.638466295</v>
+        <v>3401279.638466296</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458521</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -737,58 +737,58 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="C3" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.76484596498756</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>24.76484596498756</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>28.11631013281968</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
     </row>
     <row r="7">
@@ -1062,52 +1062,52 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
     </row>
     <row r="8">
@@ -1217,59 +1217,59 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="F10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.94015157897316</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T11" t="n">
         <v>212.2884438087945</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>257.1063990428325</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>21.42633759766401</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>41.24094756768937</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.9548995066969</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>60.23041031631863</v>
       </c>
       <c r="C14" t="n">
-        <v>83.47473153550325</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6538892153287</v>
@@ -1776,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>29.88588893635221</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.9357313989399</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>156.9548995066969</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>116.8330813676673</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868327</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.8272831086574</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H17" t="n">
-        <v>279.8515591943051</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2884438087944</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6538892153286</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250129</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026565</v>
+        <v>179.9804418693224</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.12690619333112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.2643090249449</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.252837489873</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.6836051444969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.5461237886749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831851</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9357313989398</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H19" t="n">
-        <v>75.20779664199395</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.95209132584741</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.9548995066968</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T19" t="n">
-        <v>238.0916429637042</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3466766359839</v>
+        <v>233.0044215273987</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180513</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.103879789212</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486146</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>9.829189647032608</v>
+        <v>81.32662396422759</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068496</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8272831086574</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.2643090249449</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.252837489873</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.6836051444969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.5461237886749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831851</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9357313989398</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H22" t="n">
-        <v>75.20779664199395</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.95209132584741</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.9548995066968</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T22" t="n">
-        <v>238.0916429637042</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3466766359839</v>
+        <v>277.346676635984</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180513</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.103879789212</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271553</v>
+        <v>100.7741644061698</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486146</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868327</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.7171704536209</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.8272831086574</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H23" t="n">
-        <v>279.8515591943051</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.86271419048833</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T23" t="n">
-        <v>212.2884438087944</v>
+        <v>212.2884438087948</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6538892153272</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V23" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.2643090249449</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.252837489873</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.6836051444969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.5461237886749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>108.848810048755</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9357313989398</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H25" t="n">
-        <v>136.5021430764243</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95209132584741</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>156.9548995066968</v>
+        <v>112.6126443981113</v>
       </c>
       <c r="T25" t="n">
-        <v>238.0916429637042</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3466766359839</v>
+        <v>277.346676635984</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180513</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.103879789212</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486146</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868327</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.7171704536209</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.8272831086574</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H26" t="n">
-        <v>279.8515591943051</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.86271419048833</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2884438087944</v>
+        <v>212.2884438087948</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6538892153272</v>
+        <v>255.653889215329</v>
       </c>
       <c r="V26" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.2643090249449</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.252837489873</v>
+        <v>125.9105823812872</v>
       </c>
       <c r="D28" t="n">
-        <v>161.6836051444969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.5461237886749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831851</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9357313989398</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H28" t="n">
-        <v>136.5021430764243</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I28" t="n">
-        <v>78.96292111239975</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.95209132584741</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.69763195986664</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T28" t="n">
-        <v>238.0916429637042</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3466766359839</v>
+        <v>277.346676635984</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180513</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.103879789212</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924924</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.8272831086575</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.86271419048802</v>
+        <v>69.86271419048833</v>
       </c>
       <c r="T29" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6538892153287</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V29" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H31" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>95.66055307226389</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T31" t="n">
         <v>238.0916429637043</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486146</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868327</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068495</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.7171704536208</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.8272831086573</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H32" t="n">
-        <v>279.851559194305</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.86271419048796</v>
+        <v>69.86271419048833</v>
       </c>
       <c r="T32" t="n">
-        <v>212.2884438087944</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U32" t="n">
         <v>255.6538892153281</v>
       </c>
       <c r="V32" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026564</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.60279884393</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.2643090249449</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.252837489873</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.6836051444969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.5461237886748</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.143156483185</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9357313989398</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H34" t="n">
-        <v>92.15988796784207</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.9548995066968</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T34" t="n">
-        <v>238.0916429637042</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3466766359838</v>
+        <v>277.346676635984</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180512</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892119</v>
+        <v>227.7616246806261</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271552</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>317.137426558301</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>279.8515591943053</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.50715999692846</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.2884438087946</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6538892153288</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H37" t="n">
-        <v>92.15988796783873</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>227.7616246806266</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>222.3480047624149</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>279.8515591943053</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.86271419048816</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6538892153288</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>361.8017408605347</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>29.99556994304018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>120.2038686800893</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3681,7 +3681,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I40" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.9548995066969</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>291.0604938950682</v>
+        <v>323.2888253828911</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>117.3413500359113</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I43" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>156.9548995066969</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.82207308032248</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>17.82781978805164</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>297.3793953943404</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>143.9220539163595</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>46.83798026219957</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.9357313989399</v>
@@ -4155,7 +4155,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270699</v>
+        <v>45.56827676270697</v>
       </c>
       <c r="E2" t="n">
-        <v>23.6317409509686</v>
+        <v>23.63174095096858</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5479631807729</v>
+        <v>2.547963180772885</v>
       </c>
       <c r="G2" t="n">
         <v>2.249304810625575</v>
@@ -4330,28 +4330,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K2" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L2" t="n">
-        <v>85.75474590510004</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R2" t="n">
         <v>112.4652405312787</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26430073485544</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D3" t="n">
         <v>2.249304810625575</v>
@@ -4421,7 +4421,7 @@
         <v>2.249304810625575</v>
       </c>
       <c r="N3" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O3" t="n">
         <v>56.79494646829576</v>
@@ -4430,31 +4430,31 @@
         <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C4" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D4" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G4" t="n">
         <v>2.249304810625575</v>
@@ -4500,10 +4500,10 @@
         <v>56.79494646829576</v>
       </c>
       <c r="N4" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P4" t="n">
         <v>112.4652405312787</v>
@@ -4515,25 +4515,25 @@
         <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="5">
@@ -4573,16 +4573,16 @@
         <v>2.249304810625575</v>
       </c>
       <c r="L5" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M5" t="n">
         <v>30.08445184211706</v>
       </c>
       <c r="N5" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O5" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P5" t="n">
         <v>84.63009349978725</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D6" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E6" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G6" t="n">
         <v>30.6496180761</v>
@@ -4655,19 +4655,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="M6" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N6" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O6" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P6" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
@@ -4679,19 +4679,19 @@
         <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="V6" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="W6" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="X6" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C7" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="D7" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E7" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G7" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I7" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K7" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L7" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M7" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N7" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O7" t="n">
         <v>112.4652405312787</v>
@@ -4749,28 +4749,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C8" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D8" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E8" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F8" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G8" t="n">
-        <v>2.249304810625575</v>
+        <v>2.24930481062559</v>
       </c>
       <c r="H8" t="n">
-        <v>2.249304810625575</v>
+        <v>2.24930481062559</v>
       </c>
       <c r="I8" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K8" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L8" t="n">
         <v>30.08445184211706</v>
@@ -4819,13 +4819,13 @@
         <v>57.91959887360855</v>
       </c>
       <c r="O8" t="n">
-        <v>57.91959887360855</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="P8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4846,7 +4846,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X8" t="n">
-        <v>104.78564573943</v>
+        <v>104.7856457394301</v>
       </c>
       <c r="Y8" t="n">
         <v>103.4887797347244</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C9" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D9" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E9" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
@@ -4895,13 +4895,13 @@
         <v>2.249304810625575</v>
       </c>
       <c r="N9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O9" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P9" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="Q9" t="n">
         <v>84.63009349978725</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T9" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U9" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="V9" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="W9" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X9" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C10" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D10" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E10" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G10" t="n">
         <v>2.249304810625575</v>
@@ -4965,22 +4965,22 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K10" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L10" t="n">
         <v>57.91959887360855</v>
       </c>
       <c r="M10" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="N10" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="P10" t="n">
         <v>85.75474590510004</v>
-      </c>
-      <c r="N10" t="n">
-        <v>85.75474590510004</v>
-      </c>
-      <c r="O10" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="P10" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
@@ -4998,16 +4998,16 @@
         <v>84.0649272658043</v>
       </c>
       <c r="V10" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W10" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X10" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1593.418623404721</v>
+        <v>907.8844392603146</v>
       </c>
       <c r="C11" t="n">
-        <v>1166.517893418021</v>
+        <v>480.9837092736147</v>
       </c>
       <c r="D11" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="E11" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="F11" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="G11" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="H11" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="I11" t="n">
-        <v>79.53261889552356</v>
+        <v>79.53261889552354</v>
       </c>
       <c r="J11" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2979820334618</v>
+        <v>1279.444674393807</v>
       </c>
       <c r="L11" t="n">
-        <v>1037.225201708822</v>
+        <v>1734.018413218804</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.152421384182</v>
+        <v>1952.21930433289</v>
       </c>
       <c r="N11" t="n">
-        <v>2174.700657848771</v>
+        <v>2174.70065784877</v>
       </c>
       <c r="O11" t="n">
         <v>2382.616511192678</v>
@@ -5068,25 +5068,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S11" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.121651406713</v>
+        <v>2599.553253234502</v>
       </c>
       <c r="U11" t="n">
-        <v>2411.885399674057</v>
+        <v>2341.317001501847</v>
       </c>
       <c r="V11" t="n">
-        <v>2054.395984800307</v>
+        <v>1983.827586628096</v>
       </c>
       <c r="W11" t="n">
-        <v>1658.004635100654</v>
+        <v>1587.436236928443</v>
       </c>
       <c r="X11" t="n">
-        <v>1658.004635100654</v>
+        <v>1327.732803551845</v>
       </c>
       <c r="Y11" t="n">
-        <v>1658.004635100654</v>
+        <v>1327.732803551845</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H12" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45996495438216</v>
+        <v>68.45996495438214</v>
       </c>
       <c r="J12" t="n">
-        <v>121.5400646621215</v>
+        <v>357.1625630797109</v>
       </c>
       <c r="K12" t="n">
-        <v>835.4672843374815</v>
+        <v>460.5850669719292</v>
       </c>
       <c r="L12" t="n">
-        <v>1093.841844291305</v>
+        <v>607.1767995224366</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.052972970405</v>
+        <v>781.3879282015371</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.216356643058</v>
+        <v>962.5513118741903</v>
       </c>
       <c r="O12" t="n">
-        <v>1611.334742843901</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.307417114941</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q12" t="n">
         <v>1815.073417879565</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C13" t="n">
-        <v>800.6369606376943</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D13" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E13" t="n">
         <v>612.7859895403822</v>
@@ -5196,7 +5196,7 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I13" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861494</v>
       </c>
       <c r="J13" t="n">
         <v>161.2846086864215</v>
@@ -5205,7 +5205,7 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L13" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800954</v>
       </c>
       <c r="M13" t="n">
         <v>1408.610993194761</v>
@@ -5223,28 +5223,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R13" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S13" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T13" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344483</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V13" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W13" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X13" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.667365055544</v>
+        <v>1335.692940108057</v>
       </c>
       <c r="C14" t="n">
-        <v>1168.349454413622</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="D14" t="n">
-        <v>1168.349454413622</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E14" t="n">
-        <v>1168.349454413622</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F14" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G14" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H14" t="n">
         <v>57.69108845861495</v>
@@ -5281,49 +5281,49 @@
         <v>565.5174547184469</v>
       </c>
       <c r="K14" t="n">
-        <v>715.027200741088</v>
+        <v>1279.444674393807</v>
       </c>
       <c r="L14" t="n">
-        <v>906.5037975401815</v>
+        <v>1470.9212711929</v>
       </c>
       <c r="M14" t="n">
-        <v>1124.704688654267</v>
+        <v>1689.122162306986</v>
       </c>
       <c r="N14" t="n">
-        <v>1347.186042170147</v>
+        <v>1911.603515822866</v>
       </c>
       <c r="O14" t="n">
-        <v>1555.101895514055</v>
+        <v>2119.519369166774</v>
       </c>
       <c r="P14" t="n">
-        <v>2062.612561716113</v>
+        <v>2706.700127356599</v>
       </c>
       <c r="Q14" t="n">
-        <v>2675.681804470531</v>
+        <v>2827.920462748282</v>
       </c>
       <c r="R14" t="n">
         <v>2884.554422930747</v>
       </c>
       <c r="S14" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.121651406713</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U14" t="n">
-        <v>2411.885399674057</v>
+        <v>2555.749773025882</v>
       </c>
       <c r="V14" t="n">
-        <v>2054.395984800307</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="W14" t="n">
-        <v>1658.004635100654</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="X14" t="n">
-        <v>1658.004635100654</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="Y14" t="n">
-        <v>1252.667365055544</v>
+        <v>1396.531738407369</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>68.45996495438216</v>
       </c>
       <c r="J15" t="n">
-        <v>121.5400646621215</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K15" t="n">
-        <v>224.9625685543398</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L15" t="n">
-        <v>371.5543011048472</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M15" t="n">
-        <v>545.7654297839479</v>
+        <v>837.8679222535388</v>
       </c>
       <c r="N15" t="n">
-        <v>726.9288134566011</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O15" t="n">
-        <v>889.0471996574433</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P15" t="n">
-        <v>1146.186872061168</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q15" t="n">
-        <v>1709.617917594659</v>
+        <v>1815.073417879565</v>
       </c>
       <c r="R15" t="n">
         <v>1839.929095123789</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.6095237587783</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C16" t="n">
-        <v>800.6369606376943</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D16" t="n">
-        <v>637.320187764465</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E16" t="n">
-        <v>471.1119819173185</v>
+        <v>612.7859895403822</v>
       </c>
       <c r="F16" t="n">
         <v>440.9242153149426</v>
@@ -5436,7 +5436,7 @@
         <v>57.69108845861495</v>
       </c>
       <c r="J16" t="n">
-        <v>161.2846086864215</v>
+        <v>161.2846086864214</v>
       </c>
       <c r="K16" t="n">
         <v>463.5722733880319</v>
@@ -5451,7 +5451,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O16" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P16" t="n">
         <v>2702.951323608642</v>
@@ -5460,28 +5460,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R16" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S16" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T16" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U16" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V16" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W16" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X16" t="n">
-        <v>1389.118260781102</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.775492470844</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1595.250184400321</v>
+        <v>2444.519745067464</v>
       </c>
       <c r="C17" t="n">
-        <v>1168.349454413621</v>
+        <v>2017.619015080764</v>
       </c>
       <c r="D17" t="n">
-        <v>1168.349454413621</v>
+        <v>1594.326394265764</v>
       </c>
       <c r="E17" t="n">
-        <v>1168.349454413621</v>
+        <v>1168.349454413622</v>
       </c>
       <c r="F17" t="n">
-        <v>743.2252726030215</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="G17" t="n">
-        <v>340.3694310791251</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H17" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I17" t="n">
-        <v>79.53261889552357</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J17" t="n">
         <v>173.7882360108207</v>
       </c>
       <c r="K17" t="n">
-        <v>887.7154556861809</v>
+        <v>323.2979820334618</v>
       </c>
       <c r="L17" t="n">
-        <v>1601.642675361541</v>
+        <v>902.9622979743406</v>
       </c>
       <c r="M17" t="n">
-        <v>1819.843566475627</v>
+        <v>1121.163189088426</v>
       </c>
       <c r="N17" t="n">
-        <v>2042.324919991507</v>
+        <v>1835.090408763786</v>
       </c>
       <c r="O17" t="n">
-        <v>2534.85516947043</v>
+        <v>2043.006262107693</v>
       </c>
       <c r="P17" t="n">
-        <v>2706.7001273566</v>
+        <v>2214.851219993864</v>
       </c>
       <c r="Q17" t="n">
-        <v>2827.920462748283</v>
+        <v>2827.920462748282</v>
       </c>
       <c r="R17" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S17" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.121651406714</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="U17" t="n">
-        <v>2411.885399674059</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="V17" t="n">
-        <v>2054.395984800308</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="W17" t="n">
-        <v>1658.004635100655</v>
+        <v>2444.519745067464</v>
       </c>
       <c r="X17" t="n">
-        <v>1658.004635100655</v>
+        <v>2444.519745067464</v>
       </c>
       <c r="Y17" t="n">
-        <v>1595.250184400321</v>
+        <v>2444.519745067464</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>196.6629213541763</v>
       </c>
       <c r="G18" t="n">
-        <v>103.4027427093901</v>
+        <v>103.40274270939</v>
       </c>
       <c r="H18" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I18" t="n">
-        <v>68.45996495438217</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J18" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K18" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L18" t="n">
-        <v>371.5543011048472</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M18" t="n">
-        <v>545.7654297839479</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N18" t="n">
-        <v>726.9288134566011</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O18" t="n">
-        <v>1440.856033131961</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q18" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R18" t="n">
         <v>1839.929095123789</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.6095237587804</v>
+        <v>1034.52300500568</v>
       </c>
       <c r="C19" t="n">
-        <v>800.6369606376965</v>
+        <v>862.5504418845964</v>
       </c>
       <c r="D19" t="n">
-        <v>637.3201877644673</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E19" t="n">
-        <v>471.1119819173209</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F19" t="n">
-        <v>299.2502076918814</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G19" t="n">
-        <v>133.6585598141644</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H19" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I19" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J19" t="n">
-        <v>161.2846086864218</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5722733880326</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L19" t="n">
-        <v>915.2083926800963</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M19" t="n">
-        <v>1408.610993194762</v>
+        <v>1408.610993194761</v>
       </c>
       <c r="N19" t="n">
-        <v>1885.88882244516</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O19" t="n">
         <v>2333.485767027292</v>
       </c>
       <c r="P19" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q19" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R19" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S19" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T19" t="n">
-        <v>2468.394186772922</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U19" t="n">
-        <v>2188.246028554756</v>
+        <v>2250.159509801657</v>
       </c>
       <c r="V19" t="n">
-        <v>1906.534561162785</v>
+        <v>1968.448042409686</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.682157335299</v>
+        <v>1693.595638582199</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.118260781104</v>
+        <v>1451.031742028004</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.775492470846</v>
+        <v>1224.688973717746</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>893.768025188453</v>
+        <v>564.9633752835861</v>
       </c>
       <c r="C20" t="n">
-        <v>883.8395507975109</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="D20" t="n">
-        <v>460.5469299825113</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="E20" t="n">
-        <v>460.5469299825113</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F20" t="n">
-        <v>460.5469299825113</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G20" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H20" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I20" t="n">
-        <v>79.53261889552357</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J20" t="n">
         <v>565.5174547184469</v>
       </c>
       <c r="K20" t="n">
-        <v>1050.692909056977</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L20" t="n">
-        <v>1242.16950585607</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M20" t="n">
-        <v>1460.370396970156</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N20" t="n">
-        <v>1682.851750486036</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O20" t="n">
-        <v>1890.767603829943</v>
+        <v>2061.113261845508</v>
       </c>
       <c r="P20" t="n">
-        <v>2062.612561716114</v>
+        <v>2232.958219731678</v>
       </c>
       <c r="Q20" t="n">
-        <v>2675.681804470532</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R20" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S20" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T20" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U20" t="n">
-        <v>2884.554422930748</v>
+        <v>2555.749773025882</v>
       </c>
       <c r="V20" t="n">
-        <v>2527.065008056998</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="W20" t="n">
-        <v>2130.673658357345</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="X20" t="n">
-        <v>1718.953659525092</v>
+        <v>1390.149009620226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1313.616389479983</v>
+        <v>984.8117395751161</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>196.6629213541763</v>
       </c>
       <c r="G21" t="n">
-        <v>103.4027427093901</v>
+        <v>103.40274270939</v>
       </c>
       <c r="H21" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I21" t="n">
-        <v>91.91727079879402</v>
+        <v>68.45996495438216</v>
       </c>
       <c r="J21" t="n">
-        <v>144.9973705065334</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K21" t="n">
-        <v>858.9245901818936</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L21" t="n">
-        <v>1005.516322732401</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.052972970405</v>
+        <v>837.8679222535388</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.216356643058</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O21" t="n">
-        <v>1611.334742843901</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.307417114941</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q21" t="n">
         <v>1815.073417879565</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.6095237587804</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C22" t="n">
-        <v>800.6369606376965</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D22" t="n">
-        <v>637.3201877644673</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E22" t="n">
-        <v>471.1119819173209</v>
+        <v>612.7859895403822</v>
       </c>
       <c r="F22" t="n">
-        <v>299.2502076918814</v>
+        <v>440.9242153149426</v>
       </c>
       <c r="G22" t="n">
-        <v>133.6585598141644</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H22" t="n">
-        <v>57.69108845861497</v>
+        <v>137.4516148347764</v>
       </c>
       <c r="I22" t="n">
-        <v>57.69108845861497</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J22" t="n">
-        <v>161.2846086864216</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5722733880321</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L22" t="n">
-        <v>915.2083926800958</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M22" t="n">
         <v>1408.610993194761</v>
       </c>
       <c r="N22" t="n">
-        <v>1885.88882244516</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O22" t="n">
         <v>2333.485767027292</v>
       </c>
       <c r="P22" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q22" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R22" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S22" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T22" t="n">
-        <v>2468.394186772922</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U22" t="n">
-        <v>2188.246028554756</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V22" t="n">
-        <v>1906.534561162785</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W22" t="n">
-        <v>1631.682157335299</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X22" t="n">
-        <v>1389.118260781104</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.775492470846</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C23" t="n">
         <v>2060.353487352354</v>
@@ -5977,10 +5977,10 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746119</v>
       </c>
       <c r="G23" t="n">
-        <v>383.1039033507151</v>
+        <v>383.1039033507153</v>
       </c>
       <c r="H23" t="n">
         <v>100.425560730205</v>
@@ -5989,52 +5989,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J23" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K23" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L23" t="n">
-        <v>1525.063020731719</v>
+        <v>1751.252532172239</v>
       </c>
       <c r="M23" t="n">
-        <v>2767.829334768005</v>
+        <v>1969.453423286325</v>
       </c>
       <c r="N23" t="n">
-        <v>4003.468573376687</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O23" t="n">
-        <v>4671.578783049929</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P23" t="n">
-        <v>4843.423740936099</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q23" t="n">
-        <v>4964.644076327783</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R23" t="n">
-        <v>5021.278036510248</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S23" t="n">
-        <v>4950.709638338038</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T23" t="n">
-        <v>4736.276866814002</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U23" t="n">
-        <v>4478.040615081349</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V23" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W23" t="n">
         <v>3724.159850507946</v>
       </c>
       <c r="X23" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y23" t="n">
-        <v>2907.102581630583</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>239.3973936257663</v>
       </c>
       <c r="G24" t="n">
-        <v>146.13721498098</v>
+        <v>146.1372149809801</v>
       </c>
       <c r="H24" t="n">
         <v>100.425560730205</v>
@@ -6068,7 +6068,7 @@
         <v>111.1944372259722</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2745369337115</v>
+        <v>399.8970353513007</v>
       </c>
       <c r="K24" t="n">
         <v>503.319539243519</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3109.33313733828</v>
+        <v>1077.25747727727</v>
       </c>
       <c r="C25" t="n">
-        <v>2937.360574217196</v>
+        <v>905.2849141561865</v>
       </c>
       <c r="D25" t="n">
-        <v>2774.043801343967</v>
+        <v>741.9681412829572</v>
       </c>
       <c r="E25" t="n">
-        <v>2607.835595496821</v>
+        <v>575.7599354358107</v>
       </c>
       <c r="F25" t="n">
-        <v>2497.88730251828</v>
+        <v>403.8981612103711</v>
       </c>
       <c r="G25" t="n">
-        <v>2332.295654640563</v>
+        <v>238.306513332654</v>
       </c>
       <c r="H25" t="n">
-        <v>2194.414702038114</v>
+        <v>100.425560730205</v>
       </c>
       <c r="I25" t="n">
-        <v>2194.414702038114</v>
+        <v>100.425560730205</v>
       </c>
       <c r="J25" t="n">
-        <v>2298.008222265921</v>
+        <v>204.0190809580116</v>
       </c>
       <c r="K25" t="n">
-        <v>2600.295886967531</v>
+        <v>506.306745659622</v>
       </c>
       <c r="L25" t="n">
-        <v>3051.932006259595</v>
+        <v>957.9428649516856</v>
       </c>
       <c r="M25" t="n">
-        <v>3545.33460677426</v>
+        <v>1451.345465466351</v>
       </c>
       <c r="N25" t="n">
-        <v>4022.612436024659</v>
+        <v>1928.623294716749</v>
       </c>
       <c r="O25" t="n">
-        <v>4470.209380606791</v>
+        <v>2376.220239298882</v>
       </c>
       <c r="P25" t="n">
-        <v>4839.674937188142</v>
+        <v>2745.685795880232</v>
       </c>
       <c r="Q25" t="n">
-        <v>5021.278036510248</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="R25" t="n">
-        <v>5004.154711938685</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S25" t="n">
-        <v>4845.614409406669</v>
+        <v>2813.538749345659</v>
       </c>
       <c r="T25" t="n">
-        <v>4605.117800352422</v>
+        <v>2573.042140291413</v>
       </c>
       <c r="U25" t="n">
-        <v>4324.969642134256</v>
+        <v>2292.893982073247</v>
       </c>
       <c r="V25" t="n">
-        <v>4043.258174742285</v>
+        <v>2011.182514681276</v>
       </c>
       <c r="W25" t="n">
-        <v>3768.405770914798</v>
+        <v>1736.330110853789</v>
       </c>
       <c r="X25" t="n">
-        <v>3525.841874360603</v>
+        <v>1493.766214299594</v>
       </c>
       <c r="Y25" t="n">
-        <v>3299.499106050346</v>
+        <v>1267.423445989336</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9597448746122</v>
+        <v>785.9597448746121</v>
       </c>
       <c r="G26" t="n">
-        <v>383.1039033507151</v>
+        <v>383.1039033507153</v>
       </c>
       <c r="H26" t="n">
         <v>100.425560730205</v>
@@ -6226,49 +6226,49 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J26" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K26" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L26" t="n">
-        <v>1103.095677147777</v>
+        <v>1700.153532574132</v>
       </c>
       <c r="M26" t="n">
-        <v>2345.861991184063</v>
+        <v>1918.354423688218</v>
       </c>
       <c r="N26" t="n">
-        <v>3581.501229792746</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O26" t="n">
-        <v>4671.578783049929</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P26" t="n">
-        <v>4843.423740936099</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q26" t="n">
-        <v>4964.644076327783</v>
+        <v>4812.405418050034</v>
       </c>
       <c r="R26" t="n">
-        <v>5021.278036510248</v>
+        <v>5021.278036510251</v>
       </c>
       <c r="S26" t="n">
-        <v>4950.709638338038</v>
+        <v>4950.70963833804</v>
       </c>
       <c r="T26" t="n">
-        <v>4736.276866814002</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U26" t="n">
-        <v>4478.040615081349</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V26" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W26" t="n">
         <v>3724.159850507946</v>
       </c>
       <c r="X26" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y26" t="n">
         <v>2907.102581630584</v>
@@ -6296,7 +6296,7 @@
         <v>239.3973936257663</v>
       </c>
       <c r="G27" t="n">
-        <v>146.13721498098</v>
+        <v>146.1372149809801</v>
       </c>
       <c r="H27" t="n">
         <v>100.425560730205</v>
@@ -6305,25 +6305,25 @@
         <v>111.1944372259722</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2745369337115</v>
+        <v>164.2745369337116</v>
       </c>
       <c r="K27" t="n">
-        <v>267.6970408259298</v>
+        <v>503.319539243519</v>
       </c>
       <c r="L27" t="n">
-        <v>414.2887733764372</v>
+        <v>649.9112717940263</v>
       </c>
       <c r="M27" t="n">
-        <v>588.4999020555379</v>
+        <v>824.1224004731268</v>
       </c>
       <c r="N27" t="n">
-        <v>769.6632857281911</v>
+        <v>1005.28578414578</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.06921511549</v>
+        <v>1167.404170346622</v>
       </c>
       <c r="P27" t="n">
-        <v>1781.041889386531</v>
+        <v>1294.376844617663</v>
       </c>
       <c r="Q27" t="n">
         <v>1857.807890151155</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1157.018003653431</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C28" t="n">
-        <v>985.0454405323472</v>
+        <v>905.2849141561865</v>
       </c>
       <c r="D28" t="n">
-        <v>821.7286676591181</v>
+        <v>741.9681412829572</v>
       </c>
       <c r="E28" t="n">
-        <v>655.5204618119717</v>
+        <v>575.7599354358107</v>
       </c>
       <c r="F28" t="n">
-        <v>483.6586875865322</v>
+        <v>403.8981612103711</v>
       </c>
       <c r="G28" t="n">
-        <v>318.0670397088152</v>
+        <v>238.306513332654</v>
       </c>
       <c r="H28" t="n">
-        <v>180.1860871063664</v>
+        <v>100.425560730205</v>
       </c>
       <c r="I28" t="n">
         <v>100.425560730205</v>
@@ -6387,49 +6387,49 @@
         <v>204.0190809580116</v>
       </c>
       <c r="K28" t="n">
-        <v>506.3067456596221</v>
+        <v>506.306745659622</v>
       </c>
       <c r="L28" t="n">
-        <v>957.9428649516858</v>
+        <v>957.9428649516856</v>
       </c>
       <c r="M28" t="n">
         <v>1451.345465466351</v>
       </c>
       <c r="N28" t="n">
-        <v>1928.62329471675</v>
+        <v>1928.623294716749</v>
       </c>
       <c r="O28" t="n">
         <v>2376.220239298882</v>
       </c>
       <c r="P28" t="n">
-        <v>2745.685795880233</v>
+        <v>2745.685795880232</v>
       </c>
       <c r="Q28" t="n">
-        <v>2927.288895202339</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="R28" t="n">
-        <v>2910.165570630776</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S28" t="n">
-        <v>2893.299275721819</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T28" t="n">
-        <v>2652.802666667573</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U28" t="n">
-        <v>2372.654508449407</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V28" t="n">
-        <v>2090.943041057436</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W28" t="n">
-        <v>1816.090637229949</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X28" t="n">
-        <v>1573.526740675755</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1347.183972365497</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C29" t="n">
-        <v>2060.353487352353</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.060866537353</v>
+        <v>1637.060866537354</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.08392668521</v>
+        <v>1211.083926685212</v>
       </c>
       <c r="F29" t="n">
         <v>785.9597448746118</v>
@@ -6463,52 +6463,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J29" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K29" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L29" t="n">
-        <v>1525.063020731719</v>
+        <v>2496.731419522296</v>
       </c>
       <c r="M29" t="n">
-        <v>2767.829334768005</v>
+        <v>2714.932310636382</v>
       </c>
       <c r="N29" t="n">
-        <v>4003.468573376687</v>
+        <v>2937.413664152262</v>
       </c>
       <c r="O29" t="n">
-        <v>4671.578783049929</v>
+        <v>4027.491217409445</v>
       </c>
       <c r="P29" t="n">
-        <v>4843.423740936099</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q29" t="n">
-        <v>4964.644076327783</v>
+        <v>4812.405418050034</v>
       </c>
       <c r="R29" t="n">
-        <v>5021.278036510248</v>
+        <v>5021.278036510251</v>
       </c>
       <c r="S29" t="n">
-        <v>4950.709638338038</v>
+        <v>4950.70963833804</v>
       </c>
       <c r="T29" t="n">
-        <v>4736.276866814003</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U29" t="n">
-        <v>4478.040615081348</v>
+        <v>4478.040615081351</v>
       </c>
       <c r="V29" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.5512002076</v>
       </c>
       <c r="W29" t="n">
-        <v>3724.159850507945</v>
+        <v>3724.159850507947</v>
       </c>
       <c r="X29" t="n">
-        <v>3312.439851675692</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y29" t="n">
-        <v>2907.102581630583</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>239.3973936257663</v>
       </c>
       <c r="G30" t="n">
-        <v>146.13721498098</v>
+        <v>146.1372149809801</v>
       </c>
       <c r="H30" t="n">
         <v>100.425560730205</v>
@@ -6542,25 +6542,25 @@
         <v>111.1944372259722</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2745369337115</v>
+        <v>164.2745369337116</v>
       </c>
       <c r="K30" t="n">
-        <v>267.6970408259298</v>
+        <v>880.3572088892695</v>
       </c>
       <c r="L30" t="n">
-        <v>414.2887733764372</v>
+        <v>1026.948941439777</v>
       </c>
       <c r="M30" t="n">
-        <v>588.4999020555379</v>
+        <v>1201.160070118877</v>
       </c>
       <c r="N30" t="n">
-        <v>1491.950828914648</v>
+        <v>1382.323453791531</v>
       </c>
       <c r="O30" t="n">
-        <v>1654.06921511549</v>
+        <v>1544.441839992373</v>
       </c>
       <c r="P30" t="n">
-        <v>1781.041889386531</v>
+        <v>1671.414514263414</v>
       </c>
       <c r="Q30" t="n">
         <v>1857.807890151155</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1077.25747727727</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C31" t="n">
-        <v>905.2849141561865</v>
+        <v>860.4947574808471</v>
       </c>
       <c r="D31" t="n">
-        <v>741.9681412829572</v>
+        <v>697.1779846076178</v>
       </c>
       <c r="E31" t="n">
-        <v>575.7599354358107</v>
+        <v>530.9697787604713</v>
       </c>
       <c r="F31" t="n">
-        <v>403.8981612103711</v>
+        <v>359.1080045350317</v>
       </c>
       <c r="G31" t="n">
-        <v>238.3065133326539</v>
+        <v>193.5163566573146</v>
       </c>
       <c r="H31" t="n">
         <v>100.425560730205</v>
@@ -6621,10 +6621,10 @@
         <v>100.425560730205</v>
       </c>
       <c r="J31" t="n">
-        <v>204.0190809580115</v>
+        <v>204.0190809580116</v>
       </c>
       <c r="K31" t="n">
-        <v>506.3067456596219</v>
+        <v>506.306745659622</v>
       </c>
       <c r="L31" t="n">
         <v>957.9428649516856</v>
@@ -6645,28 +6645,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R31" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S31" t="n">
-        <v>2813.538749345659</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T31" t="n">
-        <v>2573.042140291413</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.893982073247</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V31" t="n">
-        <v>2011.182514681276</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W31" t="n">
-        <v>1736.330110853789</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X31" t="n">
-        <v>1493.766214299594</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y31" t="n">
-        <v>1267.423445989336</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C32" t="n">
-        <v>2060.353487352353</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.060866537353</v>
+        <v>1637.060866537354</v>
       </c>
       <c r="E32" t="n">
-        <v>1211.083926685211</v>
+        <v>1211.083926685212</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9597448746113</v>
+        <v>785.9597448746118</v>
       </c>
       <c r="G32" t="n">
-        <v>383.1039033507151</v>
+        <v>383.1039033507153</v>
       </c>
       <c r="H32" t="n">
         <v>100.425560730205</v>
@@ -6700,52 +6700,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J32" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K32" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L32" t="n">
-        <v>1103.095677147777</v>
+        <v>1751.252532172239</v>
       </c>
       <c r="M32" t="n">
-        <v>2345.861991184063</v>
+        <v>1969.453423286325</v>
       </c>
       <c r="N32" t="n">
-        <v>3581.501229792746</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O32" t="n">
-        <v>4671.578783049929</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P32" t="n">
-        <v>4843.423740936099</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q32" t="n">
-        <v>4964.644076327783</v>
+        <v>4812.405418050034</v>
       </c>
       <c r="R32" t="n">
-        <v>5021.278036510248</v>
+        <v>5021.278036510251</v>
       </c>
       <c r="S32" t="n">
-        <v>4950.709638338038</v>
+        <v>4950.70963833804</v>
       </c>
       <c r="T32" t="n">
-        <v>4736.276866814002</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U32" t="n">
-        <v>4478.040615081348</v>
+        <v>4478.040615081351</v>
       </c>
       <c r="V32" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.5512002076</v>
       </c>
       <c r="W32" t="n">
-        <v>3724.159850507945</v>
+        <v>3724.159850507947</v>
       </c>
       <c r="X32" t="n">
-        <v>3312.439851675692</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y32" t="n">
-        <v>2907.102581630582</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>239.3973936257663</v>
       </c>
       <c r="G33" t="n">
-        <v>146.13721498098</v>
+        <v>146.1372149809801</v>
       </c>
       <c r="H33" t="n">
         <v>100.425560730205</v>
@@ -6779,25 +6779,25 @@
         <v>111.1944372259722</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2745369337115</v>
+        <v>399.8970353513007</v>
       </c>
       <c r="K33" t="n">
-        <v>267.6970408259298</v>
+        <v>503.319539243519</v>
       </c>
       <c r="L33" t="n">
-        <v>414.2887733764372</v>
+        <v>649.9112717940263</v>
       </c>
       <c r="M33" t="n">
-        <v>588.4999020555379</v>
+        <v>824.1224004731268</v>
       </c>
       <c r="N33" t="n">
-        <v>769.6632857281911</v>
+        <v>1005.28578414578</v>
       </c>
       <c r="O33" t="n">
-        <v>1654.06921511549</v>
+        <v>1167.404170346622</v>
       </c>
       <c r="P33" t="n">
-        <v>1781.041889386531</v>
+        <v>1294.376844617663</v>
       </c>
       <c r="Q33" t="n">
         <v>1857.807890151155</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1032.467320601934</v>
+        <v>1077.25747727727</v>
       </c>
       <c r="C34" t="n">
-        <v>860.49475748085</v>
+        <v>905.2849141561865</v>
       </c>
       <c r="D34" t="n">
-        <v>697.1779846076208</v>
+        <v>741.9681412829572</v>
       </c>
       <c r="E34" t="n">
-        <v>530.9697787604746</v>
+        <v>575.7599354358107</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1080045350351</v>
+        <v>403.8981612103711</v>
       </c>
       <c r="G34" t="n">
-        <v>193.5163566573182</v>
+        <v>238.306513332654</v>
       </c>
       <c r="H34" t="n">
         <v>100.425560730205</v>
@@ -6858,52 +6858,52 @@
         <v>100.425560730205</v>
       </c>
       <c r="J34" t="n">
-        <v>204.0190809580117</v>
+        <v>204.0190809580116</v>
       </c>
       <c r="K34" t="n">
-        <v>506.3067456596222</v>
+        <v>506.306745659622</v>
       </c>
       <c r="L34" t="n">
-        <v>957.942864951686</v>
+        <v>957.9428649516856</v>
       </c>
       <c r="M34" t="n">
         <v>1451.345465466351</v>
       </c>
       <c r="N34" t="n">
-        <v>1928.62329471675</v>
+        <v>1928.623294716749</v>
       </c>
       <c r="O34" t="n">
         <v>2376.220239298882</v>
       </c>
       <c r="P34" t="n">
-        <v>2745.685795880233</v>
+        <v>2745.685795880232</v>
       </c>
       <c r="Q34" t="n">
-        <v>2927.288895202339</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="R34" t="n">
-        <v>2927.288895202339</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S34" t="n">
-        <v>2768.748592670322</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T34" t="n">
-        <v>2528.251983616075</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U34" t="n">
-        <v>2248.10382539791</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V34" t="n">
-        <v>1966.392358005939</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W34" t="n">
-        <v>1691.539954178452</v>
+        <v>1736.330110853789</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.976057624257</v>
+        <v>1493.766214299594</v>
       </c>
       <c r="Y34" t="n">
-        <v>1222.633289313999</v>
+        <v>1267.423445989336</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1193.247100917968</v>
+        <v>1190.562781880825</v>
       </c>
       <c r="C35" t="n">
-        <v>766.3463709312678</v>
+        <v>763.6620518941249</v>
       </c>
       <c r="D35" t="n">
-        <v>766.3463709312678</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="E35" t="n">
         <v>340.3694310791253</v>
@@ -6940,22 +6940,22 @@
         <v>565.5174547184469</v>
       </c>
       <c r="K35" t="n">
-        <v>715.027200741088</v>
+        <v>1279.444674393807</v>
       </c>
       <c r="L35" t="n">
-        <v>906.5037975401815</v>
+        <v>1734.018413218805</v>
       </c>
       <c r="M35" t="n">
-        <v>1124.704688654267</v>
+        <v>1952.21930433289</v>
       </c>
       <c r="N35" t="n">
-        <v>1347.186042170147</v>
+        <v>2174.700657848771</v>
       </c>
       <c r="O35" t="n">
-        <v>1555.101895514055</v>
+        <v>2382.616511192678</v>
       </c>
       <c r="P35" t="n">
-        <v>2062.612561716113</v>
+        <v>2554.461469078848</v>
       </c>
       <c r="Q35" t="n">
         <v>2675.681804470531</v>
@@ -6964,25 +6964,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S35" t="n">
-        <v>2831.516887580315</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="T35" t="n">
-        <v>2617.08411605628</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="U35" t="n">
-        <v>2358.847864323624</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="V35" t="n">
-        <v>2001.358449449873</v>
+        <v>2312.632236532962</v>
       </c>
       <c r="W35" t="n">
-        <v>1604.96709975022</v>
+        <v>1916.240886833309</v>
       </c>
       <c r="X35" t="n">
-        <v>1193.247100917968</v>
+        <v>1916.240886833309</v>
       </c>
       <c r="Y35" t="n">
-        <v>1193.247100917968</v>
+        <v>1510.9036167882</v>
       </c>
     </row>
     <row r="36">
@@ -7031,13 +7031,13 @@
         <v>1019.031305926192</v>
       </c>
       <c r="O36" t="n">
-        <v>1505.879242558995</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P36" t="n">
-        <v>1632.851916830036</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q36" t="n">
-        <v>1709.617917594659</v>
+        <v>1815.073417879565</v>
       </c>
       <c r="R36" t="n">
         <v>1839.929095123789</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.7328483303413</v>
+        <v>1034.52300500568</v>
       </c>
       <c r="C37" t="n">
-        <v>817.7602852092573</v>
+        <v>862.5504418845964</v>
       </c>
       <c r="D37" t="n">
-        <v>654.443512336028</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E37" t="n">
-        <v>488.2353064888815</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F37" t="n">
-        <v>316.3735322634419</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G37" t="n">
-        <v>150.7818843857248</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H37" t="n">
         <v>57.69108845861495</v>
@@ -7095,10 +7095,10 @@
         <v>57.69108845861495</v>
       </c>
       <c r="J37" t="n">
-        <v>161.2846086864217</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K37" t="n">
-        <v>463.572273388032</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L37" t="n">
         <v>915.2083926800956</v>
@@ -7134,13 +7134,13 @@
         <v>1923.657885734347</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.80548190686</v>
+        <v>1693.595638582199</v>
       </c>
       <c r="X37" t="n">
-        <v>1406.241585352665</v>
+        <v>1451.031742028004</v>
       </c>
       <c r="Y37" t="n">
-        <v>1179.898817042407</v>
+        <v>1224.688973717746</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>564.9633752835848</v>
+        <v>1618.371282728567</v>
       </c>
       <c r="C38" t="n">
-        <v>564.9633752835848</v>
+        <v>1191.470552741867</v>
       </c>
       <c r="D38" t="n">
-        <v>564.9633752835848</v>
+        <v>1191.470552741867</v>
       </c>
       <c r="E38" t="n">
-        <v>340.3694310791253</v>
+        <v>765.493612889725</v>
       </c>
       <c r="F38" t="n">
         <v>340.3694310791253</v>
@@ -7174,28 +7174,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J38" t="n">
-        <v>565.5174547184469</v>
+        <v>173.7882360108207</v>
       </c>
       <c r="K38" t="n">
-        <v>1050.692909056976</v>
+        <v>887.7154556861807</v>
       </c>
       <c r="L38" t="n">
-        <v>1242.169505856069</v>
+        <v>1079.192052485274</v>
       </c>
       <c r="M38" t="n">
-        <v>1460.370396970155</v>
+        <v>1793.119272160634</v>
       </c>
       <c r="N38" t="n">
-        <v>1682.851750486035</v>
+        <v>2015.600625676514</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.767603829943</v>
+        <v>2223.516479020422</v>
       </c>
       <c r="P38" t="n">
-        <v>2062.612561716113</v>
+        <v>2395.361436906592</v>
       </c>
       <c r="Q38" t="n">
-        <v>2675.681804470531</v>
+        <v>2827.920462748282</v>
       </c>
       <c r="R38" t="n">
         <v>2884.554422930747</v>
@@ -7204,22 +7204,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T38" t="n">
-        <v>2813.986024758537</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U38" t="n">
-        <v>2555.749773025881</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V38" t="n">
-        <v>2198.260358152131</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W38" t="n">
-        <v>1801.869008452478</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="X38" t="n">
-        <v>1390.149009620225</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="Y38" t="n">
-        <v>984.8117395751149</v>
+        <v>1618.371282728567</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>68.45996495438216</v>
       </c>
       <c r="J39" t="n">
-        <v>121.5400646621215</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K39" t="n">
-        <v>224.9625685543398</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L39" t="n">
-        <v>542.0330108167868</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M39" t="n">
-        <v>716.2441394958873</v>
+        <v>837.8679222535388</v>
       </c>
       <c r="N39" t="n">
-        <v>897.4075231685406</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O39" t="n">
-        <v>1611.334742843901</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.307417114941</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q39" t="n">
         <v>1815.073417879565</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C40" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D40" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E40" t="n">
-        <v>612.7859895403822</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F40" t="n">
-        <v>440.9242153149426</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G40" t="n">
-        <v>275.3325674372254</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H40" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I40" t="n">
         <v>57.69108845861495</v>
@@ -7356,28 +7356,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R40" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S40" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T40" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U40" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X40" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1758.985560923057</v>
+        <v>1618.371282728567</v>
       </c>
       <c r="C41" t="n">
-        <v>1332.084830936357</v>
+        <v>1191.470552741867</v>
       </c>
       <c r="D41" t="n">
-        <v>908.7922101213574</v>
+        <v>1191.470552741867</v>
       </c>
       <c r="E41" t="n">
-        <v>482.8152702692148</v>
+        <v>765.493612889725</v>
       </c>
       <c r="F41" t="n">
-        <v>57.69108845861495</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="G41" t="n">
-        <v>57.69108845861495</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H41" t="n">
         <v>57.69108845861495</v>
@@ -7414,19 +7414,19 @@
         <v>565.5174547184469</v>
       </c>
       <c r="K41" t="n">
-        <v>715.027200741088</v>
+        <v>1050.692909056976</v>
       </c>
       <c r="L41" t="n">
-        <v>906.5037975401815</v>
+        <v>1242.169505856069</v>
       </c>
       <c r="M41" t="n">
-        <v>1124.704688654267</v>
+        <v>1460.370396970155</v>
       </c>
       <c r="N41" t="n">
-        <v>1347.186042170147</v>
+        <v>1682.851750486035</v>
       </c>
       <c r="O41" t="n">
-        <v>1555.101895514055</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P41" t="n">
         <v>2062.612561716113</v>
@@ -7438,25 +7438,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S41" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T41" t="n">
-        <v>2884.554422930747</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U41" t="n">
-        <v>2884.554422930747</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.554422930747</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="W41" t="n">
-        <v>2884.554422930747</v>
+        <v>1944.925651802195</v>
       </c>
       <c r="X41" t="n">
-        <v>2472.834424098495</v>
+        <v>1944.925651802195</v>
       </c>
       <c r="Y41" t="n">
-        <v>2178.833925214587</v>
+        <v>1618.371282728567</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>121.5400646621215</v>
       </c>
       <c r="K42" t="n">
-        <v>224.9625685543398</v>
+        <v>460.5850669719292</v>
       </c>
       <c r="L42" t="n">
-        <v>371.5543011048472</v>
+        <v>607.1767995224366</v>
       </c>
       <c r="M42" t="n">
-        <v>681.098427566086</v>
+        <v>781.3879282015371</v>
       </c>
       <c r="N42" t="n">
-        <v>862.2618112387393</v>
+        <v>962.5513118741903</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.380197439581</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.307417114941</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q42" t="n">
         <v>1815.073417879565</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1114.283531381842</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C43" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D43" t="n">
-        <v>778.9941953875286</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E43" t="n">
-        <v>612.7859895403822</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F43" t="n">
-        <v>440.9242153149426</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G43" t="n">
-        <v>275.3325674372254</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H43" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I43" t="n">
         <v>57.69108845861495</v>
@@ -7572,10 +7572,10 @@
         <v>161.2846086864215</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5722733880319</v>
+        <v>463.5722733880318</v>
       </c>
       <c r="L43" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800955</v>
       </c>
       <c r="M43" t="n">
         <v>1408.610993194761</v>
@@ -7593,28 +7593,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R43" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S43" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T43" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U43" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V43" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W43" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X43" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y43" t="n">
-        <v>1304.449500093908</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1758.985560923057</v>
+        <v>1616.539721732967</v>
       </c>
       <c r="C44" t="n">
-        <v>1332.084830936357</v>
+        <v>1189.638991746267</v>
       </c>
       <c r="D44" t="n">
-        <v>908.7922101213571</v>
+        <v>766.3463709312678</v>
       </c>
       <c r="E44" t="n">
-        <v>482.8152702692147</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="F44" t="n">
-        <v>57.69108845861495</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="G44" t="n">
-        <v>57.69108845861495</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H44" t="n">
         <v>57.69108845861495</v>
@@ -7648,25 +7648,25 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J44" t="n">
-        <v>565.5174547184469</v>
+        <v>173.7882360108207</v>
       </c>
       <c r="K44" t="n">
-        <v>715.027200741088</v>
+        <v>887.7154556861807</v>
       </c>
       <c r="L44" t="n">
-        <v>906.5037975401815</v>
+        <v>1601.642675361541</v>
       </c>
       <c r="M44" t="n">
-        <v>1124.704688654267</v>
+        <v>1819.843566475626</v>
       </c>
       <c r="N44" t="n">
-        <v>1347.186042170147</v>
+        <v>2042.324919991506</v>
       </c>
       <c r="O44" t="n">
-        <v>1555.101895514055</v>
+        <v>2250.240773335414</v>
       </c>
       <c r="P44" t="n">
-        <v>2062.612561716113</v>
+        <v>2554.461469078848</v>
       </c>
       <c r="Q44" t="n">
         <v>2675.681804470531</v>
@@ -7675,25 +7675,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S44" t="n">
-        <v>2884.554422930747</v>
+        <v>2866.546524154938</v>
       </c>
       <c r="T44" t="n">
-        <v>2884.554422930747</v>
+        <v>2652.113752630903</v>
       </c>
       <c r="U44" t="n">
-        <v>2884.554422930747</v>
+        <v>2393.877500898248</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.554422930747</v>
+        <v>2036.388086024497</v>
       </c>
       <c r="W44" t="n">
-        <v>2584.171195259697</v>
+        <v>2036.388086024497</v>
       </c>
       <c r="X44" t="n">
-        <v>2584.171195259697</v>
+        <v>2036.388086024497</v>
       </c>
       <c r="Y44" t="n">
-        <v>2178.833925214587</v>
+        <v>2036.388086024497</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>68.45996495438216</v>
       </c>
       <c r="J45" t="n">
-        <v>413.6425571317126</v>
+        <v>121.5400646621215</v>
       </c>
       <c r="K45" t="n">
-        <v>517.0650610239309</v>
+        <v>460.5850669719292</v>
       </c>
       <c r="L45" t="n">
-        <v>663.6567935744382</v>
+        <v>607.1767995224366</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.052972970405</v>
+        <v>781.3879282015371</v>
       </c>
       <c r="N45" t="n">
-        <v>1449.216356643058</v>
+        <v>962.5513118741903</v>
       </c>
       <c r="O45" t="n">
-        <v>1611.334742843901</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.307417114941</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q45" t="n">
         <v>1815.073417879565</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.7328483303413</v>
+        <v>1034.52300500568</v>
       </c>
       <c r="C46" t="n">
-        <v>817.7602852092573</v>
+        <v>862.5504418845964</v>
       </c>
       <c r="D46" t="n">
-        <v>654.443512336028</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E46" t="n">
-        <v>488.2353064888815</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F46" t="n">
-        <v>440.9242153149426</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G46" t="n">
-        <v>275.3325674372254</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H46" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I46" t="n">
         <v>57.69108845861495</v>
       </c>
       <c r="J46" t="n">
-        <v>161.2846086864217</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K46" t="n">
-        <v>463.572273388032</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L46" t="n">
-        <v>915.2083926800958</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M46" t="n">
         <v>1408.610993194761</v>
@@ -7821,7 +7821,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O46" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P46" t="n">
         <v>2702.951323608642</v>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>62.74489839701005</v>
       </c>
       <c r="L2" t="n">
         <v>66.42835256544261</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -8002,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>48.32332581574237</v>
       </c>
       <c r="O3" t="n">
-        <v>50.15218732442293</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P3" t="n">
         <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,13 +8148,13 @@
         <v>49.55573749368652</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
         <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8221,19 +8221,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M5" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>65.39593296726571</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O5" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8303,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>48.32332581574237</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P6" t="n">
-        <v>48.75113880702937</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q6" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>47.61705358610257</v>
       </c>
       <c r="K7" t="n">
         <v>20.964654452712</v>
@@ -8388,7 +8388,7 @@
         <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>22.38080065798648</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,7 +8467,7 @@
         <v>65.39593296726571</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P8" t="n">
         <v>64.55565941243201</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>49.45933834636135</v>
       </c>
       <c r="O9" t="n">
-        <v>50.15218732442293</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P9" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.86334842179818</v>
+        <v>49.72733589117921</v>
       </c>
       <c r="R9" t="n">
         <v>51.78922952696383</v>
@@ -8613,25 +8613,25 @@
         <v>48.75306611672156</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>51.59986036698565</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>570.1186602552714</v>
       </c>
       <c r="L11" t="n">
-        <v>527.7279018952188</v>
+        <v>265.7546889150548</v>
       </c>
       <c r="M11" t="n">
-        <v>500.7336652134084</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>203.0978615643524</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>238.0025236541307</v>
       </c>
       <c r="K12" t="n">
-        <v>616.6714300839815</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112.9119468720361</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>570.1186602552716</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>339.0562710261495</v>
+        <v>419.5311114178332</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>131.4818162956397</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>434.5303542594606</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>570.1186602552718</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>527.727901895219</v>
+        <v>392.1088072139245</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>496.4099658176564</v>
       </c>
       <c r="O17" t="n">
-        <v>287.4892890252682</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.3826600752708</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>172.2007168807466</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>339.0562710261505</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>511.1225922539927</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>324.7507569163336</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>616.6714300839817</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>89.21769854434712</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>434.5303542594606</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>51.61515110919956</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>464.8427841710453</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>238.0025236541304</v>
       </c>
       <c r="K24" t="n">
-        <v>238.0025236541305</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>551.0976020642745</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>51.6151511091995</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>238.0025236541304</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>729.5833769560173</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>804.6241282304688</v>
       </c>
       <c r="M29" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>464.8427841710453</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>729.5833769560172</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7347223465834</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>551.0976020642745</v>
+        <v>51.61515110919933</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>238.0025236541304</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>729.5833769560173</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>570.1186602552716</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>265.754688915055</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>339.0562710261495</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>328.00964690097</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>434.5303542594606</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>339.0562710261495</v>
+        <v>570.1186602552716</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>500.7336652134084</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>314.4835257070778</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>172.2007168807471</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.3826600752705</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>434.5303542594606</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>339.0562710261495</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>238.0025236541308</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>136.6999977597355</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>570.1186602552716</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>527.7279018952188</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>339.0562710261495</v>
+        <v>133.7128665224888</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11375,16 +11375,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>238.0025236541308</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>434.530354259461</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.7097290696416</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>150.4963998010977</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>355.4194703322961</v>
       </c>
       <c r="C14" t="n">
-        <v>339.1569911513296</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486146</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068496</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.86271419048799</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>212.4469943333341</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.1569911513273</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>61.29434643443039</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.96292111239975</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.34225510858533</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>412.8025330398002</v>
+        <v>341.3050987226053</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536209</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924936</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H20" t="n">
-        <v>279.8515591943051</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.86271419048799</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2884438087944</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6538892153286</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>61.29434643443039</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>78.96292111239975</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>123.3051762209855</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>61.29434643443008</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>78.96292111239975</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>44.34225510858565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.34225510858597</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S28" t="n">
-        <v>140.2572675468301</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>44.34225510858602</v>
       </c>
       <c r="I31" t="n">
         <v>78.96292111239987</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S31" t="n">
-        <v>61.29434643443301</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>44.34225510858225</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.96292111239973</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95209132584738</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>44.34225510858596</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>98.51245409031372</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.8272831086575</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.3555541935597</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>44.34225510858573</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>78.96292111239987</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>44.34225510858553</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>199.3691656912062</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.8272831086575</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2884438087946</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>39.48215648412389</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>44.34225510858565</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H41" t="n">
-        <v>279.8515591943053</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.86271419048816</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.2884438087946</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6538892153288</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.2234034495904</v>
+        <v>77.99507196176745</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.34225510858568</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.2572675468329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.8272831086575</v>
       </c>
       <c r="H44" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.86271419048811</v>
+        <v>52.03489440243646</v>
       </c>
       <c r="T44" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>95.04804080831616</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>44.3422551085855</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>123.3051762209856</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>426750.8444561546</v>
+        <v>426750.8444561544</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426750.8444561546</v>
+        <v>426750.8444561544</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625857.4106564161</v>
+        <v>625857.410656416</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625857.4106564161</v>
+        <v>625857.410656416</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625857.4106564161</v>
+        <v>625857.410656416</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426750.8444561544</v>
+        <v>426750.8444561545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426750.8444561543</v>
+        <v>426750.8444561545</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426750.8444561543</v>
+        <v>426750.8444561545</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="E2" t="n">
-        <v>362304.0516361091</v>
+        <v>362304.051636109</v>
       </c>
       <c r="F2" t="n">
         <v>362304.051636109</v>
       </c>
       <c r="G2" t="n">
-        <v>362304.0516361092</v>
+        <v>362304.0516361091</v>
       </c>
       <c r="H2" t="n">
-        <v>362304.0516361091</v>
+        <v>362304.051636109</v>
       </c>
       <c r="I2" t="n">
-        <v>506691.9318912839</v>
+        <v>506691.9318912837</v>
       </c>
       <c r="J2" t="n">
-        <v>506691.9318912839</v>
+        <v>506691.9318912841</v>
       </c>
       <c r="K2" t="n">
+        <v>506691.9318912841</v>
+      </c>
+      <c r="L2" t="n">
         <v>506691.9318912837</v>
       </c>
-      <c r="L2" t="n">
-        <v>506691.9318912841</v>
-      </c>
       <c r="M2" t="n">
-        <v>362304.0516361092</v>
+        <v>362304.0516361089</v>
       </c>
       <c r="N2" t="n">
-        <v>362304.051636109</v>
+        <v>362304.0516361089</v>
       </c>
       <c r="O2" t="n">
         <v>362304.0516361091</v>
       </c>
       <c r="P2" t="n">
-        <v>362304.0516361089</v>
+        <v>362304.0516361091</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142049.9200116685</v>
+        <v>142049.9200116687</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391494</v>
+        <v>7356.463848391553</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39583.91030305269</v>
+        <v>39583.91030305265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>319001.8568014398</v>
       </c>
       <c r="E4" t="n">
-        <v>65005.0199911572</v>
+        <v>65005.01999115718</v>
       </c>
       <c r="F4" t="n">
+        <v>65005.01999115715</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65005.01999115716</v>
+      </c>
+      <c r="H4" t="n">
         <v>65005.01999115718</v>
-      </c>
-      <c r="G4" t="n">
-        <v>65005.01999115731</v>
-      </c>
-      <c r="H4" t="n">
-        <v>65005.01999115731</v>
       </c>
       <c r="I4" t="n">
         <v>119976.2537175288</v>
       </c>
       <c r="J4" t="n">
-        <v>119976.2537175288</v>
+        <v>119976.2537175287</v>
       </c>
       <c r="K4" t="n">
-        <v>119976.2537175288</v>
+        <v>119976.2537175287</v>
       </c>
       <c r="L4" t="n">
-        <v>119976.2537175288</v>
+        <v>119976.2537175287</v>
       </c>
       <c r="M4" t="n">
-        <v>65005.01999115715</v>
+        <v>65005.01999115718</v>
       </c>
       <c r="N4" t="n">
-        <v>65005.01999115715</v>
+        <v>65005.01999115717</v>
       </c>
       <c r="O4" t="n">
-        <v>65005.01999115715</v>
+        <v>65005.01999115718</v>
       </c>
       <c r="P4" t="n">
         <v>65005.01999115718</v>
@@ -26478,37 +26478,37 @@
         <v>35337.07165607544</v>
       </c>
       <c r="E5" t="n">
-        <v>51807.93193102434</v>
+        <v>51807.93193102433</v>
       </c>
       <c r="F5" t="n">
         <v>51807.93193102434</v>
       </c>
       <c r="G5" t="n">
-        <v>51807.93193102436</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="H5" t="n">
-        <v>51807.93193102436</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="I5" t="n">
-        <v>84286.13085743277</v>
+        <v>84286.13085743278</v>
       </c>
       <c r="J5" t="n">
-        <v>84286.13085743277</v>
+        <v>84286.1308574328</v>
       </c>
       <c r="K5" t="n">
-        <v>84286.13085743276</v>
+        <v>84286.1308574328</v>
       </c>
       <c r="L5" t="n">
-        <v>84286.13085743277</v>
+        <v>84286.1308574328</v>
       </c>
       <c r="M5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="N5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="O5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="P5" t="n">
         <v>51807.93193102434</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145875.9838516116</v>
+        <v>145875.9838516117</v>
       </c>
       <c r="C6" t="n">
         <v>155298.4060522526</v>
       </c>
       <c r="D6" t="n">
-        <v>155298.4060522525</v>
+        <v>155298.4060522527</v>
       </c>
       <c r="E6" t="n">
-        <v>-254882.4436508692</v>
+        <v>-255303.3958876511</v>
       </c>
       <c r="F6" t="n">
-        <v>245491.0997139275</v>
+        <v>245070.1474771456</v>
       </c>
       <c r="G6" t="n">
-        <v>245491.0997139275</v>
+        <v>245070.1474771457</v>
       </c>
       <c r="H6" t="n">
-        <v>245491.0997139275</v>
+        <v>245070.1474771456</v>
       </c>
       <c r="I6" t="n">
-        <v>160379.6273046538</v>
+        <v>160371.2118686007</v>
       </c>
       <c r="J6" t="n">
-        <v>295073.0834679308</v>
+        <v>295064.6680318782</v>
       </c>
       <c r="K6" t="n">
-        <v>302429.5473163221</v>
+        <v>302421.1318802697</v>
       </c>
       <c r="L6" t="n">
-        <v>302429.5473163225</v>
+        <v>302421.1318802693</v>
       </c>
       <c r="M6" t="n">
-        <v>205907.189410875</v>
+        <v>205486.2371740929</v>
       </c>
       <c r="N6" t="n">
-        <v>245491.0997139275</v>
+        <v>245070.1474771455</v>
       </c>
       <c r="O6" t="n">
-        <v>245491.0997139276</v>
+        <v>245070.1474771457</v>
       </c>
       <c r="P6" t="n">
-        <v>245491.0997139274</v>
+        <v>245070.1474771457</v>
       </c>
     </row>
   </sheetData>
@@ -26798,28 +26798,28 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>721.1386057326869</v>
+        <v>721.1386057326868</v>
       </c>
       <c r="F4" t="n">
         <v>721.1386057326869</v>
       </c>
       <c r="G4" t="n">
-        <v>721.1386057326871</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="H4" t="n">
-        <v>721.1386057326871</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="I4" t="n">
         <v>1255.319509127562</v>
       </c>
       <c r="J4" t="n">
-        <v>1255.319509127562</v>
+        <v>1255.319509127563</v>
       </c>
       <c r="K4" t="n">
-        <v>1255.319509127562</v>
+        <v>1255.319509127563</v>
       </c>
       <c r="L4" t="n">
-        <v>1255.319509127562</v>
+        <v>1255.319509127563</v>
       </c>
       <c r="M4" t="n">
         <v>721.1386057326869</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998671</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>534.1809033948749</v>
+        <v>534.1809033948756</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>28.11631013281999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>158.8413922049921</v>
+        <v>158.8413922049913</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998671</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>102.8728933608745</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>78.03671293488026</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -27526,7 +27526,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>110.1796496274208</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>145.4879915248856</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>136.4298136558553</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27587,7 +27587,7 @@
         <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>99.52142919304239</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
@@ -27703,13 +27703,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>78.89006842480455</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
         <v>24.72602217249382</v>
@@ -27751,7 +27751,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>158.1556681545721</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>110.1796496274208</v>
       </c>
     </row>
     <row r="7">
@@ -27782,19 +27782,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>139.7812778236874</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>114.2419956741075</v>
       </c>
       <c r="I7" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>216.1411083313714</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27842,7 +27842,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>195.9630304943357</v>
       </c>
     </row>
     <row r="8">
@@ -27937,19 +27937,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>74.68524876704814</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F9" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T9" t="n">
-        <v>140.4611363452985</v>
+        <v>112.3448262124788</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9205141195597</v>
+        <v>154.80420398674</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -28000,7 +28000,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.5311137952529</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28019,13 +28019,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>139.7812778236874</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28070,10 +28070,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>247.3390338242245</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L2" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="O3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O3" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="P3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>26.98029760220071</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N5" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O5" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="O6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q6" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="O7" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P8" t="n">
         <v>26.98029760220071</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O9" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="P9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>28.11631013281968</v>
       </c>
       <c r="R9" t="n">
         <v>28.11631013281968</v>
@@ -35333,25 +35333,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M10" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K11" t="n">
-        <v>151.0199454774153</v>
+        <v>721.1386057326868</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1386057326869</v>
+        <v>459.1653927525229</v>
       </c>
       <c r="M11" t="n">
-        <v>721.1386057326869</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N11" t="n">
-        <v>427.8265014793829</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O11" t="n">
         <v>210.0160134786942</v>
@@ -35488,13 +35488,13 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J12" t="n">
-        <v>53.61626233104985</v>
+        <v>291.6187859851806</v>
       </c>
       <c r="K12" t="n">
-        <v>721.1386057326869</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L12" t="n">
-        <v>260.9844039937607</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M12" t="n">
         <v>175.9708370495965</v>
@@ -35509,7 +35509,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.54141491376085</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R12" t="n">
         <v>25.10674469113549</v>
@@ -35649,7 +35649,7 @@
         <v>490.8937735585084</v>
       </c>
       <c r="K14" t="n">
-        <v>151.0199454774153</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L14" t="n">
         <v>193.4107038374681</v>
@@ -35664,13 +35664,13 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P14" t="n">
-        <v>512.6370365677357</v>
+        <v>593.1118769594193</v>
       </c>
       <c r="Q14" t="n">
-        <v>619.2618613680996</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R14" t="n">
-        <v>210.9824428891073</v>
+        <v>57.20602038632837</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J15" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K15" t="n">
         <v>104.4671756487053</v>
@@ -35743,13 +35743,13 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P15" t="n">
-        <v>259.7370428320447</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q15" t="n">
-        <v>569.1222682156478</v>
+        <v>512.0717691732215</v>
       </c>
       <c r="R15" t="n">
-        <v>131.6274520496262</v>
+        <v>25.10674469113549</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>95.20769405585568</v>
       </c>
       <c r="K17" t="n">
-        <v>721.1386057326871</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1386057326871</v>
+        <v>585.5195110513927</v>
       </c>
       <c r="M17" t="n">
         <v>220.4049405192785</v>
       </c>
       <c r="N17" t="n">
-        <v>224.7286399150305</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="O17" t="n">
-        <v>497.5053025039624</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P17" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R17" t="n">
         <v>57.20602038632837</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J18" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K18" t="n">
         <v>104.4671756487053</v>
@@ -35977,16 +35977,16 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O18" t="n">
-        <v>721.1386057326871</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P18" t="n">
-        <v>300.4559434171517</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.54141491376085</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R18" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>104.6399194220269</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K19" t="n">
-        <v>305.3410754561722</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L19" t="n">
-        <v>456.1981002950139</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M19" t="n">
-        <v>498.3864651663288</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N19" t="n">
-        <v>482.0988174246448</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O19" t="n">
-        <v>452.1181258405381</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P19" t="n">
-        <v>373.1975319003543</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q19" t="n">
-        <v>183.4374740627327</v>
+        <v>183.4374740627325</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>490.8937735585084</v>
       </c>
       <c r="K20" t="n">
-        <v>490.0762165035658</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L20" t="n">
         <v>193.4107038374681</v>
@@ -36135,13 +36135,13 @@
         <v>224.7286399150305</v>
       </c>
       <c r="O20" t="n">
-        <v>210.0160134786942</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="P20" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q20" t="n">
-        <v>619.2618613680996</v>
+        <v>447.1955401402564</v>
       </c>
       <c r="R20" t="n">
         <v>210.9824428891073</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.57190135371621</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J21" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K21" t="n">
-        <v>721.1386057326871</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L21" t="n">
         <v>148.0724571217246</v>
       </c>
       <c r="M21" t="n">
-        <v>265.1885355939436</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N21" t="n">
         <v>182.9933168410639</v>
@@ -36220,7 +36220,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.54141491376085</v>
+        <v>512.0717691732215</v>
       </c>
       <c r="R21" t="n">
         <v>25.10674469113549</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>104.6399194220269</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K22" t="n">
-        <v>305.3410754561722</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L22" t="n">
-        <v>456.1981002950139</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M22" t="n">
-        <v>498.3864651663288</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N22" t="n">
-        <v>482.0988174246448</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O22" t="n">
-        <v>452.1181258405381</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P22" t="n">
-        <v>373.1975319003543</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q22" t="n">
-        <v>183.4374740627327</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J23" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K23" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.737945885522</v>
+        <v>245.0258549466677</v>
       </c>
       <c r="M23" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N23" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O23" t="n">
-        <v>674.8587976497395</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P23" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R23" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J24" t="n">
-        <v>53.61626233104985</v>
+        <v>291.6187859851803</v>
       </c>
       <c r="K24" t="n">
-        <v>342.4696993028359</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L24" t="n">
         <v>148.0724571217246</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.6399194220269</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K25" t="n">
-        <v>305.3410754561722</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L25" t="n">
-        <v>456.1981002950139</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M25" t="n">
-        <v>498.3864651663288</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N25" t="n">
-        <v>482.0988174246448</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O25" t="n">
-        <v>452.1181258405381</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P25" t="n">
-        <v>373.1975319003543</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q25" t="n">
-        <v>183.4374740627327</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J26" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K26" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L26" t="n">
-        <v>744.5083059017426</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M26" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N26" t="n">
-        <v>1248.120443039074</v>
+        <v>276.34379102423</v>
       </c>
       <c r="O26" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P26" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R26" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>53.61626233104985</v>
       </c>
       <c r="K27" t="n">
-        <v>104.4671756487053</v>
+        <v>342.4696993028357</v>
       </c>
       <c r="L27" t="n">
         <v>148.0724571217246</v>
@@ -36688,13 +36688,13 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O27" t="n">
-        <v>893.3393226134336</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P27" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.54141491376085</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R27" t="n">
         <v>25.10674469113549</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.6399194220269</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K28" t="n">
-        <v>305.3410754561722</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L28" t="n">
-        <v>456.1981002950139</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M28" t="n">
-        <v>498.3864651663288</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N28" t="n">
-        <v>482.0988174246448</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O28" t="n">
-        <v>452.1181258405381</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P28" t="n">
-        <v>373.1975319003543</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q28" t="n">
-        <v>183.4374740627327</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J29" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K29" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.737945885522</v>
+        <v>998.0348320679369</v>
       </c>
       <c r="M29" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N29" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O29" t="n">
-        <v>674.8587976497395</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P29" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R29" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>53.61626233104985</v>
       </c>
       <c r="K30" t="n">
-        <v>104.4671756487053</v>
+        <v>723.3158302581393</v>
       </c>
       <c r="L30" t="n">
         <v>148.0724571217246</v>
@@ -36922,7 +36922,7 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N30" t="n">
-        <v>912.5766937970811</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O30" t="n">
         <v>163.7559456574163</v>
@@ -36931,7 +36931,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.54141491376085</v>
+        <v>188.2761372603443</v>
       </c>
       <c r="R30" t="n">
         <v>25.10674469113549</v>
@@ -37068,31 +37068,31 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J32" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K32" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L32" t="n">
-        <v>744.5083059017426</v>
+        <v>245.0258549466675</v>
       </c>
       <c r="M32" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N32" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O32" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P32" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R32" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J33" t="n">
-        <v>53.61626233104985</v>
+        <v>291.6187859851802</v>
       </c>
       <c r="K33" t="n">
         <v>104.4671756487053</v>
@@ -37162,13 +37162,13 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O33" t="n">
-        <v>893.3393226134336</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P33" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.54141491376085</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R33" t="n">
         <v>25.10674469113549</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.639919422027</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K34" t="n">
-        <v>305.3410754561722</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L34" t="n">
-        <v>456.1981002950139</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M34" t="n">
-        <v>498.3864651663288</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N34" t="n">
-        <v>482.0988174246448</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O34" t="n">
-        <v>452.1181258405381</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P34" t="n">
-        <v>373.1975319003544</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q34" t="n">
-        <v>183.4374740627327</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>490.8937735585084</v>
       </c>
       <c r="K35" t="n">
-        <v>151.0199454774153</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L35" t="n">
-        <v>193.4107038374681</v>
+        <v>459.1653927525231</v>
       </c>
       <c r="M35" t="n">
         <v>220.4049405192785</v>
@@ -37323,10 +37323,10 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P35" t="n">
-        <v>512.6370365677357</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q35" t="n">
-        <v>619.2618613680996</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R35" t="n">
         <v>210.9824428891073</v>
@@ -37399,16 +37399,16 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O36" t="n">
-        <v>491.7655925583863</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P36" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.54141491376085</v>
+        <v>512.0717691732215</v>
       </c>
       <c r="R36" t="n">
-        <v>131.6274520496262</v>
+        <v>25.10674469113549</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>456.1981002950138</v>
       </c>
       <c r="M37" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N37" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O37" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P37" t="n">
         <v>373.1975319003542</v>
@@ -37542,16 +37542,16 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J38" t="n">
-        <v>490.8937735585084</v>
+        <v>95.20769405585568</v>
       </c>
       <c r="K38" t="n">
-        <v>490.0762165035649</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L38" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M38" t="n">
-        <v>220.4049405192785</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="N38" t="n">
         <v>224.7286399150305</v>
@@ -37563,10 +37563,10 @@
         <v>173.5807655415861</v>
       </c>
       <c r="Q38" t="n">
-        <v>619.2618613680996</v>
+        <v>436.9283089310005</v>
       </c>
       <c r="R38" t="n">
-        <v>210.9824428891073</v>
+        <v>57.20602038632837</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J39" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K39" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L39" t="n">
-        <v>320.2731740024717</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M39" t="n">
         <v>175.9708370495965</v>
@@ -37636,13 +37636,13 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O39" t="n">
-        <v>721.1386057326869</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P39" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.54141491376085</v>
+        <v>512.0717691732215</v>
       </c>
       <c r="R39" t="n">
         <v>25.10674469113549</v>
@@ -37782,7 +37782,7 @@
         <v>490.8937735585084</v>
       </c>
       <c r="K41" t="n">
-        <v>151.0199454774153</v>
+        <v>490.0762165035649</v>
       </c>
       <c r="L41" t="n">
         <v>193.4107038374681</v>
@@ -37797,7 +37797,7 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P41" t="n">
-        <v>512.6370365677357</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q41" t="n">
         <v>619.2618613680996</v>
@@ -37861,13 +37861,13 @@
         <v>53.61626233104985</v>
       </c>
       <c r="K42" t="n">
-        <v>104.4671756487053</v>
+        <v>342.4696993028361</v>
       </c>
       <c r="L42" t="n">
         <v>148.0724571217246</v>
       </c>
       <c r="M42" t="n">
-        <v>312.6708348093321</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N42" t="n">
         <v>182.9933168410639</v>
@@ -37876,10 +37876,10 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P42" t="n">
-        <v>721.1386057326869</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.54141491376085</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R42" t="n">
         <v>25.10674469113549</v>
@@ -37949,7 +37949,7 @@
         <v>498.3864651663287</v>
       </c>
       <c r="N43" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O43" t="n">
         <v>452.118125840538</v>
@@ -38016,13 +38016,13 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J44" t="n">
-        <v>490.8937735585084</v>
+        <v>95.20769405585568</v>
       </c>
       <c r="K44" t="n">
-        <v>151.0199454774153</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L44" t="n">
-        <v>193.4107038374681</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="M44" t="n">
         <v>220.4049405192785</v>
@@ -38034,10 +38034,10 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P44" t="n">
-        <v>512.6370365677357</v>
+        <v>307.2936320640749</v>
       </c>
       <c r="Q44" t="n">
-        <v>619.2618613680996</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R44" t="n">
         <v>210.9824428891073</v>
@@ -38095,16 +38095,16 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J45" t="n">
-        <v>348.6692850276065</v>
+        <v>53.61626233104985</v>
       </c>
       <c r="K45" t="n">
-        <v>104.4671756487053</v>
+        <v>342.4696993028361</v>
       </c>
       <c r="L45" t="n">
         <v>148.0724571217246</v>
       </c>
       <c r="M45" t="n">
-        <v>610.5011913090575</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N45" t="n">
         <v>182.9933168410639</v>
@@ -38116,7 +38116,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.54141491376085</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R45" t="n">
         <v>25.10674469113549</v>
